--- a/Echo Cinematic/FAB FILES - Echo Cinematic/CPL - Echo Cinematic.xlsx
+++ b/Echo Cinematic/FAB FILES - Echo Cinematic/CPL - Echo Cinematic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supul Sapukotana\Desktop\Dropbox\Fiverr\Clients\jasonmayo898\Echo Cinematic\FAB FILES - Echo Cinematic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supul Sapukotana\Documents\GitHub\EchoCinematic-hw\Echo Cinematic\FAB FILES - Echo Cinematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="200">
   <si>
     <t>Val</t>
   </si>
@@ -414,15 +414,6 @@
     <t>R70</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ES_DAISY_SEED2_DFM</t>
-  </si>
-  <si>
-    <t>DAISY_SEED2</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -622,6 +613,12 @@
   </si>
   <si>
     <t>Layer</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R52</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1454,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,7 +2101,7 @@
         <v>-127.5</v>
       </c>
       <c r="F29">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
@@ -2150,7 +2147,7 @@
         <v>-75.75</v>
       </c>
       <c r="F31">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -2173,7 +2170,7 @@
         <v>-95.75</v>
       </c>
       <c r="F32">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -2196,7 +2193,7 @@
         <v>-95.75</v>
       </c>
       <c r="F33">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -2219,7 +2216,7 @@
         <v>-75.75</v>
       </c>
       <c r="F34">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
@@ -2242,7 +2239,7 @@
         <v>-95.75</v>
       </c>
       <c r="F35">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -3423,22 +3420,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
       </c>
       <c r="D87">
-        <v>109.75</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E87">
-        <v>-141.5</v>
+        <v>-137</v>
       </c>
       <c r="F87">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -3446,19 +3443,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>64</v>
       </c>
       <c r="D88">
-        <v>83.75</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="E88">
-        <v>-134.5</v>
+        <v>-133.80000000000001</v>
       </c>
       <c r="F88">
         <v>-90</v>
@@ -3469,22 +3466,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
         <v>64</v>
       </c>
       <c r="D89">
-        <v>81</v>
+        <v>109.75</v>
       </c>
       <c r="E89">
-        <v>-126.75</v>
+        <v>-141.5</v>
       </c>
       <c r="F89">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
@@ -3492,19 +3489,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>64</v>
       </c>
       <c r="D90">
-        <v>103.5</v>
+        <v>83.75</v>
       </c>
       <c r="E90">
-        <v>-138.5</v>
+        <v>-134.5</v>
       </c>
       <c r="F90">
         <v>-90</v>
@@ -3515,19 +3512,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
         <v>64</v>
       </c>
       <c r="D91">
-        <v>103.75</v>
+        <v>81</v>
       </c>
       <c r="E91">
-        <v>-127.5</v>
+        <v>-126.75</v>
       </c>
       <c r="F91">
         <v>-90</v>
@@ -3538,19 +3535,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
         <v>64</v>
       </c>
       <c r="D92">
-        <v>67.75</v>
+        <v>103.5</v>
       </c>
       <c r="E92">
-        <v>-123.5</v>
+        <v>-138.5</v>
       </c>
       <c r="F92">
         <v>-90</v>
@@ -3561,19 +3558,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
         <v>64</v>
       </c>
       <c r="D93">
-        <v>67.75</v>
+        <v>103.75</v>
       </c>
       <c r="E93">
-        <v>-118.25</v>
+        <v>-127.5</v>
       </c>
       <c r="F93">
         <v>-90</v>
@@ -3584,22 +3581,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="D94">
-        <v>84</v>
+        <v>67.75</v>
       </c>
       <c r="E94">
-        <v>-115.015</v>
+        <v>-123.5</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
@@ -3607,22 +3604,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D95">
-        <v>74.5</v>
+        <v>67.75</v>
       </c>
       <c r="E95">
-        <v>-124.5</v>
+        <v>-118.25</v>
       </c>
       <c r="F95">
-        <v>270</v>
+        <v>-90</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
@@ -3630,22 +3627,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D96">
-        <v>99.5</v>
+        <v>74.5</v>
       </c>
       <c r="E96">
-        <v>-136.75</v>
+        <v>-124.5</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
@@ -3653,22 +3650,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D97">
-        <v>107.25</v>
+        <v>99.5</v>
       </c>
       <c r="E97">
-        <v>-134.25</v>
+        <v>-136.75</v>
       </c>
       <c r="F97">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
@@ -3676,22 +3673,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D98">
-        <v>115</v>
+        <v>107.25</v>
       </c>
       <c r="E98">
-        <v>-135.75</v>
+        <v>-134.25</v>
       </c>
       <c r="F98">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
@@ -3699,283 +3696,283 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D99">
-        <v>78.75</v>
+        <v>115</v>
       </c>
       <c r="E99">
-        <v>-137.5</v>
+        <v>-135.75</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D100">
-        <v>87.75</v>
+        <v>78.75</v>
       </c>
       <c r="E100">
-        <v>-130.5</v>
+        <v>-137.5</v>
       </c>
       <c r="F100">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D101">
         <v>87.75</v>
       </c>
       <c r="E101">
-        <v>-142.25</v>
+        <v>-130.5</v>
       </c>
       <c r="F101">
         <v>-90</v>
       </c>
       <c r="G101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D102">
-        <v>116.25</v>
+        <v>87.75</v>
       </c>
       <c r="E102">
-        <v>-130.5</v>
+        <v>-142.25</v>
       </c>
       <c r="F102">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D103">
         <v>116.25</v>
       </c>
       <c r="E103">
-        <v>-142.25</v>
+        <v>-130.5</v>
       </c>
       <c r="F103">
         <v>90</v>
       </c>
       <c r="G103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D104">
-        <v>100.25</v>
+        <v>116.25</v>
       </c>
       <c r="E104">
-        <v>-130.5</v>
+        <v>-142.25</v>
       </c>
       <c r="F104">
         <v>90</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D105">
-        <v>71.75</v>
+        <v>100.25</v>
       </c>
       <c r="E105">
         <v>-130.5</v>
       </c>
       <c r="F105">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G105" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D106">
-        <v>100.25</v>
+        <v>71.75</v>
       </c>
       <c r="E106">
-        <v>-142.25</v>
+        <v>-130.5</v>
       </c>
       <c r="F106">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D107">
-        <v>71.75</v>
+        <v>100.25</v>
       </c>
       <c r="E107">
         <v>-142.25</v>
       </c>
       <c r="F107">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G107" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D108">
-        <v>73.25</v>
+        <v>71.75</v>
       </c>
       <c r="E108">
-        <v>-49.75</v>
+        <v>-142.25</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
         <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D109">
-        <v>114.75</v>
+        <v>73.25</v>
       </c>
       <c r="E109">
-        <v>-68.25</v>
+        <v>-49.75</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
         <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D110">
-        <v>94</v>
+        <v>114.75</v>
       </c>
       <c r="E110">
-        <v>-82</v>
+        <v>-68.25</v>
       </c>
       <c r="F110">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
         <v>74</v>
@@ -3984,191 +3981,191 @@
         <v>166</v>
       </c>
       <c r="D111">
-        <v>114.75</v>
+        <v>94</v>
       </c>
       <c r="E111">
-        <v>-86.75</v>
+        <v>-82</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G111" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D112">
-        <v>73.25</v>
+        <v>114.75</v>
       </c>
       <c r="E112">
-        <v>-102.75</v>
+        <v>-86.75</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D113">
         <v>73.25</v>
       </c>
       <c r="E113">
-        <v>-68.25</v>
+        <v>-102.75</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D114">
         <v>73.25</v>
       </c>
       <c r="E114">
-        <v>-86.75</v>
+        <v>-68.25</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D115">
-        <v>114.75</v>
+        <v>73.25</v>
       </c>
       <c r="E115">
-        <v>-102.75</v>
+        <v>-86.75</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D116">
-        <v>94</v>
+        <v>114.75</v>
       </c>
       <c r="E116">
-        <v>-47.25</v>
+        <v>-102.75</v>
       </c>
       <c r="F116">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D117">
         <v>94</v>
       </c>
       <c r="E117">
-        <v>-109.75</v>
+        <v>-47.25</v>
       </c>
       <c r="F117">
         <v>90</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D118">
-        <v>112.25</v>
+        <v>94</v>
       </c>
       <c r="E118">
-        <v>-117</v>
+        <v>-109.75</v>
       </c>
       <c r="F118">
         <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D119">
-        <v>75.75</v>
+        <v>112.25</v>
       </c>
       <c r="E119">
         <v>-117</v>
@@ -4177,67 +4174,67 @@
         <v>90</v>
       </c>
       <c r="G119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D120">
-        <v>94</v>
+        <v>75.75</v>
       </c>
       <c r="E120">
-        <v>-65.75</v>
+        <v>-117</v>
       </c>
       <c r="F120">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G120" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D121">
-        <v>103.25</v>
+        <v>94</v>
       </c>
       <c r="E121">
-        <v>-98</v>
+        <v>-65.75</v>
       </c>
       <c r="F121">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D122">
-        <v>84.75</v>
+        <v>103.25</v>
       </c>
       <c r="E122">
         <v>-98</v>
@@ -4246,76 +4243,99 @@
         <v>90</v>
       </c>
       <c r="G122" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D123">
-        <v>82.25</v>
+        <v>84.75</v>
       </c>
       <c r="E123">
-        <v>-79.5</v>
+        <v>-98</v>
       </c>
       <c r="F123">
         <v>90</v>
       </c>
       <c r="G123" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D124">
-        <v>107.5</v>
+        <v>82.25</v>
       </c>
       <c r="E124">
-        <v>-61</v>
+        <v>-79.5</v>
       </c>
       <c r="F124">
         <v>90</v>
       </c>
       <c r="G124" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D125">
+        <v>107.5</v>
+      </c>
+      <c r="E125">
+        <v>-61</v>
+      </c>
+      <c r="F125">
+        <v>90</v>
+      </c>
+      <c r="G125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126">
         <v>114.75</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>-49.75</v>
       </c>
-      <c r="F125">
-        <v>90</v>
-      </c>
-      <c r="G125" t="s">
-        <v>146</v>
+      <c r="F126">
+        <v>90</v>
+      </c>
+      <c r="G126" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
